--- a/data/trans_camb/P29_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.116539659244575</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.3744271949320588</v>
+        <v>-0.3744271949320699</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.642151068987472</v>
@@ -655,7 +655,7 @@
         <v>6.786088216511265</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.999169195710508</v>
+        <v>6.999169195710503</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.037875865999712</v>
@@ -664,7 +664,7 @@
         <v>6.791483310323853</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.503778546064014</v>
+        <v>5.503778546064003</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8260873043530739</v>
+        <v>1.12038259335267</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.684078751008334</v>
+        <v>-3.922613048052864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.798268174118261</v>
+        <v>-7.722837388502025</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.487498976625243</v>
+        <v>2.144781362367115</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.304560752842093</v>
+        <v>3.239497727491927</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.313807464085418</v>
+        <v>2.659562942199275</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.051788823699249</v>
+        <v>5.906755205070217</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.6956726160117</v>
+        <v>3.716740709500519</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.757991170696084</v>
+        <v>1.89958506930108</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.70930615257472</v>
+        <v>10.91794693181049</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.554518839132394</v>
+        <v>6.666046629584733</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.45115346714703</v>
+        <v>5.846203350180796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.45217500534412</v>
+        <v>9.632676322520382</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.78923069406806</v>
+        <v>10.75907275898504</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.969108850963</v>
+        <v>11.19847220051199</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.12355733992948</v>
+        <v>12.3579340381403</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.09103128442536</v>
+        <v>9.876630384246525</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.198838147260213</v>
+        <v>9.442255030792321</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.02168852489400098</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.007273161746685504</v>
+        <v>-0.00727316174668572</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2850808774099777</v>
@@ -760,7 +760,7 @@
         <v>0.3428805714859596</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3536469107361418</v>
+        <v>0.3536469107361415</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2817377353168977</v>
@@ -769,7 +769,7 @@
         <v>0.2117109324870662</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1715693074616359</v>
+        <v>0.1715693074616355</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01748914213366357</v>
+        <v>0.0194236054063395</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06856917245841025</v>
+        <v>-0.07228001315170973</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1429834715999682</v>
+        <v>-0.1365738951272265</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06638992239687722</v>
+        <v>0.09907268829375181</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1520865549306967</v>
+        <v>0.1416795400000514</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1623118294963031</v>
+        <v>0.1291663562845551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1761393671594183</v>
+        <v>0.1694988955780563</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1084736564918092</v>
+        <v>0.1078572729641799</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.05187203946803819</v>
+        <v>0.05527329197147837</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2458161209688656</v>
+        <v>0.2215792670239055</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1373057800300507</v>
+        <v>0.1406876896164286</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1132550818420648</v>
+        <v>0.120447912422417</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5249176291133469</v>
+        <v>0.5397061294352713</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6085867363354229</v>
+        <v>0.5935747948600127</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6862366700365108</v>
+        <v>0.622383097003547</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4022516652999755</v>
+        <v>0.4027269985023747</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3316102228829584</v>
+        <v>0.3260995926391205</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2993743573378265</v>
+        <v>0.3101672957136953</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>4.567687516939712</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.360692501279633</v>
+        <v>3.360692501279638</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.430533784481749</v>
+        <v>-3.583870481257244</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.936345590398378</v>
+        <v>-2.988145667003371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.369621092579371</v>
+        <v>-6.533540665932271</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.172532988141493</v>
+        <v>1.839497183071287</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.210004524162018</v>
+        <v>4.861211766318185</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.396309505205107</v>
+        <v>6.474867225594798</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.494927992870987</v>
+        <v>-0.6415529354667981</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.42311064055419</v>
+        <v>1.168359609310757</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4850226010375875</v>
+        <v>0.3343568804050929</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.037451469146379</v>
+        <v>5.805622193303494</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.963844497447465</v>
+        <v>6.251372816131105</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.302777121570106</v>
+        <v>3.257348261926534</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.954711983992008</v>
+        <v>9.713420422781759</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.27435802850851</v>
+        <v>12.8602837290684</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.07104979796911</v>
+        <v>13.97507002781617</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.892258496701888</v>
+        <v>5.546704275239609</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.752786679329153</v>
+        <v>7.349251896818456</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.376495346316664</v>
+        <v>6.500608901274425</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1107928891427231</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.08151626624111066</v>
+        <v>0.0815162662411108</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03980793975468194</v>
+        <v>-0.05737573397725893</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04868238158061019</v>
+        <v>-0.04828513352092052</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1057765647368542</v>
+        <v>-0.1062648409485204</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08769224273495439</v>
+        <v>0.06949281090167383</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2036167585806816</v>
+        <v>0.1965909842563726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2506425105632322</v>
+        <v>0.2525293114985061</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01141604521759979</v>
+        <v>-0.01493007055506045</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03286781631375254</v>
+        <v>0.02765138617463234</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.01154179730840553</v>
+        <v>0.007511125811996484</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1087287028700816</v>
+        <v>0.1047047685573944</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1060237276301441</v>
+        <v>0.1103679248573799</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.05696877179241468</v>
+        <v>0.05720927050897741</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4673565455612771</v>
+        <v>0.4469306524084583</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6217268232061395</v>
+        <v>0.606686548911602</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6588646129147031</v>
+        <v>0.6432796238286497</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1493601230175261</v>
+        <v>0.1386607124586674</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1956676088225396</v>
+        <v>0.1862985913722705</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1630392559700024</v>
+        <v>0.162733215636849</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>5.926420290315293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.143241871980871</v>
+        <v>1.14324187198086</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.06821211979410324</v>
@@ -1083,7 +1083,7 @@
         <v>6.301537506138488</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.784243161673369</v>
+        <v>5.784243161673375</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.9795388571796515</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.174263252954877</v>
+        <v>-1.093578461124051</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.090613784107856</v>
+        <v>1.681892085825586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.370348002534802</v>
+        <v>-3.173391025822134</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.721318696232967</v>
+        <v>-4.555288139841586</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.753421633985625</v>
+        <v>1.648861923742915</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.193282669234776</v>
+        <v>2.044368756118669</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.965354420053116</v>
+        <v>-2.410895844793502</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.03344604713182</v>
+        <v>2.393201335751962</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.5808045339866509</v>
+        <v>-0.3859182904296202</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.929577616886865</v>
+        <v>7.518813244820081</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.47488845578689</v>
+        <v>10.3807153452354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.666435485554094</v>
+        <v>5.893186867211851</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.991767892969174</v>
+        <v>3.977079885946562</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.57731858194356</v>
+        <v>10.76593681649953</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.961158854397652</v>
+        <v>9.987155345269116</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.624292054280494</v>
+        <v>4.113983634903813</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.872450527251955</v>
+        <v>9.043826452118196</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.845720527840641</v>
+        <v>5.93289742713212</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1012905550337284</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.01953955306544423</v>
+        <v>0.01953955306544404</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.00213371382827943</v>
@@ -1188,7 +1188,7 @@
         <v>0.1971156703068991</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1809344095660273</v>
+        <v>0.1809344095660275</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.02127597738756854</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.01968210397832902</v>
+        <v>-0.02089370797306304</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01832509164461386</v>
+        <v>0.02779505312854251</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.05573906894638586</v>
+        <v>-0.05304703345222707</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1388097598065412</v>
+        <v>-0.1344534536799059</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05050797131619569</v>
+        <v>0.04780022729027904</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06462287282730651</v>
+        <v>0.05913419682619765</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.06356905226870828</v>
+        <v>-0.05119306187992344</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04281852231761659</v>
+        <v>0.04958553801294645</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.01291284648488913</v>
+        <v>-0.007470127471810972</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1408152351097575</v>
+        <v>0.1307432089051265</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1850429496299824</v>
+        <v>0.1846336776995606</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.09956010430625431</v>
+        <v>0.1032569224715305</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1333304958698678</v>
+        <v>0.1357988978869242</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3876654501685219</v>
+        <v>0.3581581898665314</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3366442264379287</v>
+        <v>0.3374319589632681</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08138361487179618</v>
+        <v>0.08983963763734533</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1987082839048801</v>
+        <v>0.2036895900989927</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.131445877708565</v>
+        <v>0.1331730056778249</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.7151579368933181</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.191518628478029</v>
+        <v>-3.191518628478035</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.966760902571012</v>
+        <v>-9.243763933307429</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.278788399821243</v>
+        <v>-4.833799257798587</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.24710313534595</v>
+        <v>-10.13215356399985</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.551347195263551</v>
+        <v>-9.510430427746988</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.559432265415412</v>
+        <v>-7.517521193466931</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.938171912615569</v>
+        <v>-5.283850791684254</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-9.026232460462188</v>
+        <v>-9.060830487030373</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.218383280260568</v>
+        <v>-5.325909562349429</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.762041492878505</v>
+        <v>-7.471198577070645</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.934498228557906</v>
+        <v>2.9070737953216</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.446088907267957</v>
+        <v>7.510322865912711</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.238365831760602</v>
+        <v>1.463856917483519</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.35186162367247</v>
+        <v>5.385398102775397</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.572450199280102</v>
+        <v>6.318948191375773</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.1453677038884</v>
+        <v>6.552076634887189</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.394821562082999</v>
+        <v>0.6328791186950715</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.231755837745581</v>
+        <v>4.594212945578831</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.12929152714824</v>
+        <v>0.7521200880483733</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.01377396741811128</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.06146876282169989</v>
+        <v>-0.0614687628217</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1566853106296746</v>
+        <v>-0.1416562070965457</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08063173511479106</v>
+        <v>-0.0741277269104606</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1558960404939666</v>
+        <v>-0.1535206460779575</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2014216827136147</v>
+        <v>-0.2200634478448242</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1744133209331628</v>
+        <v>-0.1707085633138931</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1354285425687313</v>
+        <v>-0.1232684894896967</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1663108296993685</v>
+        <v>-0.167865823222945</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09467983651538998</v>
+        <v>-0.09856061816343523</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.140027706044332</v>
+        <v>-0.1364192533651118</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0504838772811874</v>
+        <v>0.04984624882625647</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1258066503063127</v>
+        <v>0.1293326843450452</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02118123746671189</v>
+        <v>0.02594667435547312</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1495409719193788</v>
+        <v>0.1512601574013444</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1815235117208474</v>
+        <v>0.1890234782764822</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1754006374923263</v>
+        <v>0.1901636896810773</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02882066481467424</v>
+        <v>0.01227300923495318</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.08760390583591167</v>
+        <v>0.09370031504893381</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.02406767370384567</v>
+        <v>0.01397852663885719</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>5.962607137573118</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.538570002407809</v>
+        <v>8.538570002407814</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.465141384102115</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5993773028006517</v>
+        <v>-0.3576584380402458</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.166571358880941</v>
+        <v>-0.8956052535255219</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.040349065889507</v>
+        <v>-3.211760426068275</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8674545785068105</v>
+        <v>0.7297112336278058</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.689997220783626</v>
+        <v>3.728720039628748</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.384885604316761</v>
+        <v>6.697460832913789</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7364550361056632</v>
+        <v>0.87770526614689</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.020299105065413</v>
+        <v>1.791931698242811</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.073304694822978</v>
+        <v>2.067386668492852</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.500827505258918</v>
+        <v>4.417077715666209</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.90583139385338</v>
+        <v>3.787378829794151</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.044678731712851</v>
+        <v>1.864143436658592</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.347136643266939</v>
+        <v>5.250186805111799</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.960533867011666</v>
+        <v>8.189037399089596</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.73263949443159</v>
+        <v>10.76060165671811</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.288498412956431</v>
+        <v>4.415711643045657</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.35720578590259</v>
+        <v>5.359284328127513</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.506804815107132</v>
+        <v>5.406212315195416</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.2243986989387175</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3213433243427365</v>
+        <v>0.3213433243427367</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.05874265977470781</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01004427144425624</v>
+        <v>-0.00610039896668285</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.01973630135731392</v>
+        <v>-0.01502412459009272</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0520842052444115</v>
+        <v>-0.05496662932386012</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03063530936148107</v>
+        <v>0.02773333800534733</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1329730960488818</v>
+        <v>0.1353641457027821</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2266203403978637</v>
+        <v>0.2422095671376053</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01640096562221008</v>
+        <v>0.0201849913585516</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0467801300548028</v>
+        <v>0.04186522961844059</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.04855403568530219</v>
+        <v>0.04852497212014342</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.07934192935644301</v>
+        <v>0.07822139167935696</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.06950295651009372</v>
+        <v>0.06645726865514839</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.03588414639275353</v>
+        <v>0.03265553750391348</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2072800656249375</v>
+        <v>0.2063873549072224</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3135407625662014</v>
+        <v>0.3261909650147661</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.424392180665486</v>
+        <v>0.427942878054936</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1038656573334921</v>
+        <v>0.1065724579014038</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1298345109833458</v>
+        <v>0.1306216551810572</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.134549799018881</v>
+        <v>0.1325002756487674</v>
       </c>
     </row>
     <row r="34">
